--- a/biology/Zoologie/Aigialosauridae/Aigialosauridae.xlsx
+++ b/biology/Zoologie/Aigialosauridae/Aigialosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aigialosauridae sont une famille fossile des sauropsides semi-aquatiques marins, carnivores, au sein de la super-famille des Mosasauroidea. La seule autre famille de ce dernier groupe est celle des Mosasauridae.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux genres ont été attribués à la famille des Aigialosauridae dont le statut ne parait pas stabilisé.
-La définition de 2017, établie par D. Mazdia et A. Cau, est par contre extrêmement restrictive : « Le clade le plus inclusif contenant Aigialosaurus dalmaticus Kramberger, 1892[1] et Opetiosaurus bucchichi Kornhuber, 1901[2], mais ni Dolichosaurus longicollis Owen, 1850, ni Adriosaurus suessi Seeley, 1881, ni Pontosaurus lesinensis Kornhuber, 1873, ni, non plus, le clade provenant du dernier ancêtre commun de Halisaurus platyspondylus Marsh, 1869, Mosasaurus hoffmannii Mantell, 1829 et Tylosaurus proriger (Cope, 1869)[3] ».
-Un nouveau genre de mosausauroïdes basaux, Portunatasaurus, long d'environ un mètre, provenant également du Cénomanien de Croatie, a été décrit en 2019. Il montre des caractères plésiomorphiques (ancestraux) le rapprochant de Aigialosaurus et de famille des Aigialosauridae, comme des membres de lézards terrestres et un corps très allongé, mais aussi des caractères très évolués comme ceux des Mosasaurinae[4].
+La définition de 2017, établie par D. Mazdia et A. Cau, est par contre extrêmement restrictive : « Le clade le plus inclusif contenant Aigialosaurus dalmaticus Kramberger, 1892 et Opetiosaurus bucchichi Kornhuber, 1901, mais ni Dolichosaurus longicollis Owen, 1850, ni Adriosaurus suessi Seeley, 1881, ni Pontosaurus lesinensis Kornhuber, 1873, ni, non plus, le clade provenant du dernier ancêtre commun de Halisaurus platyspondylus Marsh, 1869, Mosasaurus hoffmannii Mantell, 1829 et Tylosaurus proriger (Cope, 1869) ».
+Un nouveau genre de mosausauroïdes basaux, Portunatasaurus, long d'environ un mètre, provenant également du Cénomanien de Croatie, a été décrit en 2019. Il montre des caractères plésiomorphiques (ancestraux) le rapprochant de Aigialosaurus et de famille des Aigialosauridae, comme des membres de lézards terrestres et un corps très allongé, mais aussi des caractères très évolués comme ceux des Mosasaurinae.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les aigialosauridés étaient des lézards semi-aquatiques, qui vivaient sur les marges peu profondes de l'ancien océan Téthys, avec probablement la possibilité de se déplacer sur les rivages[4]. Leurs fossiles ne sont connus que dans le Cénomanien (Crétacé supérieur) de Croatie.
-Leurs crânes ressemblent à ceux des mosasaures plus évolués, mais le reste de leur corps rappelle plus celui de lézards terrestres[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les aigialosauridés étaient des lézards semi-aquatiques, qui vivaient sur les marges peu profondes de l'ancien océan Téthys, avec probablement la possibilité de se déplacer sur les rivages. Leurs fossiles ne sont connus que dans le Cénomanien (Crétacé supérieur) de Croatie.
+Leurs crânes ressemblent à ceux des mosasaures plus évolués, mais le reste de leur corps rappelle plus celui de lézards terrestres. 
 </t>
         </is>
       </c>
